--- a/lab3diags/gantt.xlsx
+++ b/lab3diags/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanstantinaspiatrashka/Code/psi2/lab3diags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2669AB3-94C1-DE4D-AD91-DFF0A3DFA0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5D64F-ED7C-9644-A5AC-E09287D1C93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{A5FF3AAA-16CE-3143-A190-B84A57C4F330}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Tasks</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Advertisement compaign preparation</t>
+  </si>
+  <si>
+    <t>9 week</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64626C37-1C2A-C84C-BF93-0CB9001A1410}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +492,7 @@
     <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,22 +520,25 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -537,7 +546,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -545,33 +554,39 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
